--- a/medicine/Enfance/Béatrice_Clément/Béatrice_Clément.xlsx
+++ b/medicine/Enfance/Béatrice_Clément/Béatrice_Clément.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Cl%C3%A9ment</t>
+          <t>Béatrice_Clément</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Béatrice Clément est une enseignante, écrivain et scénariste de bande dessinée québécoise née à Paris le 22 décembre 1905 et morte à Boucherville le 19 mars 2001[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Béatrice Clément est une enseignante, écrivain et scénariste de bande dessinée québécoise née à Paris le 22 décembre 1905 et morte à Boucherville le 19 mars 2001.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Cl%C3%A9ment</t>
+          <t>Béatrice_Clément</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née de parents québécois, Béatrice Clément naît à Paris et grandit en Angleterre[2], puis sa famille s'installe en France en 1924[3]. Béatrice Clément devient enseignante[2]. En raison de l'invasion allemande de la Seconde Guerre mondiale, toute la famille quitte la France en juin 1940 et s'installe à Montréal, où Béatrice Clément poursuit son activité d'enseignante ; en parallèle, elle rédige des articles sur l'éducation avant d'écrire des livres pour enfants[3].
-En 1948, elle rassemble les auteurs québécois pour la jeunesse dans l'Association des écrivains pour la jeunesse puis elle co-fonde les Éditions Jeunesse en 1949[3]. La même année, elle s'associe avec Daniel Lareau pour une série de bandes dessinées biographiques « sur les figures historiques de la Nouvelle-France » : 46 biographies de deux pages sont parues dans Le Petit Journal entre 1949 et 1950[2]. Elles sont présentes aussi dans d'autres périodiques[2]. En 1960, 18 biographies sont rassemblées en recueils : Parade historique[2].
-En 1957, son ouvrage Le Chevalier du roi obtient la médaille de bronze de l'Association canadienne des libraires, section enfantine[4].
-En 1976, elle met fin à sa carrière d'écrivain[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née de parents québécois, Béatrice Clément naît à Paris et grandit en Angleterre, puis sa famille s'installe en France en 1924. Béatrice Clément devient enseignante. En raison de l'invasion allemande de la Seconde Guerre mondiale, toute la famille quitte la France en juin 1940 et s'installe à Montréal, où Béatrice Clément poursuit son activité d'enseignante ; en parallèle, elle rédige des articles sur l'éducation avant d'écrire des livres pour enfants.
+En 1948, elle rassemble les auteurs québécois pour la jeunesse dans l'Association des écrivains pour la jeunesse puis elle co-fonde les Éditions Jeunesse en 1949. La même année, elle s'associe avec Daniel Lareau pour une série de bandes dessinées biographiques « sur les figures historiques de la Nouvelle-France » : 46 biographies de deux pages sont parues dans Le Petit Journal entre 1949 et 1950. Elles sont présentes aussi dans d'autres périodiques. En 1960, 18 biographies sont rassemblées en recueils : Parade historique.
+En 1957, son ouvrage Le Chevalier du roi obtient la médaille de bronze de l'Association canadienne des libraires, section enfantine.
+En 1976, elle met fin à sa carrière d'écrivain.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Cl%C3%A9ment</t>
+          <t>Béatrice_Clément</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Série sur 46 figures historiques de la Nouvelle-France, dessinée par Daniel Lareau, parue dans Le Petit Journal, 23 janvier 1949 - 8 octobre 1950
 Recueils de certaines biographies sous le titre Parade historique, 1960
